--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4017.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4017.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.684299350006406</v>
+        <v>5.368471145629883</v>
       </c>
       <c r="B1">
-        <v>2.553998701205421</v>
+        <v>5.728126049041748</v>
       </c>
       <c r="C1">
-        <v>2.842914407565645</v>
+        <v>6.797221660614014</v>
       </c>
       <c r="D1">
-        <v>3.428048590517684</v>
+        <v>9.444619178771973</v>
       </c>
       <c r="E1">
-        <v>2.040966375312299</v>
+        <v>5.247567653656006</v>
       </c>
     </row>
   </sheetData>
